--- a/public/FINAL- Food Systems Stakeholder Survey (Responses).xlsx
+++ b/public/FINAL- Food Systems Stakeholder Survey (Responses).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="793">
   <si>
     <t>Timestamp</t>
   </si>
@@ -2408,6 +2408,12 @@
   </si>
   <si>
     <t>https://www.angelcityadvisors.com/</t>
+  </si>
+  <si>
+    <t>6310 San Vicente Blvd, Los Angeles, CA 90048</t>
+  </si>
+  <si>
+    <t>(MOCK ADDRESS USED) Please remove my HQ address from public viewing thanks!</t>
   </si>
   <si>
     <t>annenberg.org</t>
@@ -8252,7 +8258,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>58</v>
+        <v>709</v>
       </c>
       <c r="J2" s="12">
         <v>90048.0</v>
@@ -8294,7 +8300,7 @@
         <v>67</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>68</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3">
@@ -8311,7 +8317,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>72</v>
@@ -8323,7 +8329,7 @@
         <v>74</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J3" s="15">
         <v>90067.0</v>
@@ -8380,7 +8386,7 @@
         <v>84</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>85</v>
@@ -8448,7 +8454,7 @@
         <v>96</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>97</v>
@@ -8516,7 +8522,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>110</v>
@@ -8585,7 +8591,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>122</v>
@@ -8653,7 +8659,7 @@
         <v>133</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>134</v>
@@ -8724,7 +8730,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>144</v>
@@ -8793,7 +8799,7 @@
         <v>166</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>167</v>
@@ -8861,7 +8867,7 @@
         <v>176</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>177</v>
@@ -8929,10 +8935,10 @@
         <v>187</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>189</v>
@@ -9001,7 +9007,7 @@
         <v>200</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>201</v>
@@ -9070,7 +9076,7 @@
         <v>209</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>210</v>
@@ -9135,10 +9141,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>43</v>
@@ -9150,7 +9156,7 @@
         <v>45</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J15" s="10">
         <v>90020.0</v>
@@ -9203,10 +9209,10 @@
         <v>454</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>456</v>
@@ -9218,7 +9224,7 @@
         <v>45</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="J16" s="12">
         <v>90012.0</v>
@@ -9271,10 +9277,10 @@
         <v>461</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>463</v>
@@ -9339,10 +9345,10 @@
         <v>220</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>222</v>
@@ -9408,10 +9414,10 @@
         <v>469</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>471</v>
@@ -9480,7 +9486,7 @@
         <v>240</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>241</v>
@@ -9492,7 +9498,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J20" s="12">
         <v>90020.0</v>
@@ -9548,7 +9554,7 @@
         <v>258</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>259</v>
@@ -9616,7 +9622,7 @@
         <v>269</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>270</v>
@@ -9684,7 +9690,7 @@
         <v>281</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>282</v>
@@ -9752,7 +9758,7 @@
         <v>289</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>290</v>
@@ -9821,7 +9827,7 @@
         <v>298</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>299</v>
@@ -9889,7 +9895,7 @@
         <v>309</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>310</v>
@@ -9957,7 +9963,7 @@
         <v>331</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>332</v>
@@ -10026,7 +10032,7 @@
         <v>341</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>342</v>
@@ -10095,7 +10101,7 @@
         <v>354</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>360</v>
@@ -10166,7 +10172,7 @@
         <v>370</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>371</v>
@@ -10235,7 +10241,7 @@
         <v>381</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>382</v>
@@ -10306,7 +10312,7 @@
         <v>392</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>393</v>
@@ -10374,7 +10380,7 @@
         <v>402</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>403</v>
@@ -10442,7 +10448,7 @@
         <v>411</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>412</v>
@@ -10511,7 +10517,7 @@
         <v>427</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>428</v>
@@ -10580,7 +10586,7 @@
         <v>435</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>436</v>
@@ -10592,7 +10598,7 @@
         <v>27</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="J36" s="12">
         <v>90021.0</v>
@@ -10648,7 +10654,7 @@
         <v>444</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>445</v>
@@ -10719,7 +10725,7 @@
         <v>481</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>482</v>
@@ -10790,7 +10796,7 @@
         <v>492</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>493</v>
@@ -10859,7 +10865,7 @@
         <v>500</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>501</v>
@@ -10930,7 +10936,7 @@
         <v>511</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>512</v>
@@ -10998,7 +11004,7 @@
         <v>520</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>521</v>
@@ -11010,7 +11016,7 @@
         <v>27</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J42" s="7">
         <v>91602.0</v>
@@ -11067,7 +11073,7 @@
         <v>528</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>529</v>
@@ -11135,7 +11141,7 @@
         <v>536</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>537</v>
@@ -11147,7 +11153,7 @@
         <v>27</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="J44" s="12">
         <v>91331.0</v>
@@ -11203,7 +11209,7 @@
         <v>545</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>546</v>
@@ -11271,7 +11277,7 @@
         <v>565</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>566</v>
@@ -11339,7 +11345,7 @@
         <v>575</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>576</v>
@@ -11407,7 +11413,7 @@
         <v>587</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>588</v>
@@ -11478,7 +11484,7 @@
         <v>598</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>599</v>
@@ -11546,7 +11552,7 @@
         <v>614</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>615</v>
@@ -11614,7 +11620,7 @@
         <v>621</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>622</v>
@@ -11682,7 +11688,7 @@
         <v>630</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>631</v>
@@ -11747,10 +11753,10 @@
         <v>23</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>25</v>
@@ -11819,7 +11825,7 @@
         <v>639</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>640</v>
@@ -11890,7 +11896,7 @@
         <v>649</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>650</v>
@@ -11959,7 +11965,7 @@
         <v>659</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>660</v>
@@ -12027,7 +12033,7 @@
         <v>667</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>668</v>
@@ -12098,7 +12104,7 @@
         <v>677</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>678</v>
@@ -12169,7 +12175,7 @@
         <v>684</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>685</v>
@@ -12231,13 +12237,13 @@
         <v>229</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>232</v>
@@ -12305,7 +12311,7 @@
         <v>692</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>693</v>
@@ -12498,28 +12504,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
